--- a/GradedExercise.xlsx
+++ b/GradedExercise.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="Bonus">Sheet1!$H$33</definedName>
+    <definedName name="Malus">Sheet1!$H$38</definedName>
+    <definedName name="TOTAL">Sheet1!$I$40</definedName>
     <definedName name="TOTAL_POINTS">Sheet1!$I$33</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>It works</t>
   </si>
@@ -119,7 +122,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> per Criteria</t>
@@ -143,7 +145,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> per Unit</t>
@@ -160,6 +161,21 @@
   </si>
   <si>
     <t>Role-based Security</t>
+  </si>
+  <si>
+    <t>Missing Tests</t>
+  </si>
+  <si>
+    <t>Failing Tests</t>
+  </si>
+  <si>
+    <t>Malus</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Materialized Scaffold</t>
   </si>
 </sst>
 </file>
@@ -169,13 +185,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,6 +217,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -223,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,20 +270,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -589,18 +631,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I35"/>
+  <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -659,11 +701,11 @@
       <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f>SUM(G4:G5)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f>MIN(C6,G6)</f>
         <v>0</v>
       </c>
@@ -741,11 +783,11 @@
       <c r="C14" s="1">
         <v>15</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f>SUM(G8:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f>MIN(C14,G14)</f>
         <v>0</v>
       </c>
@@ -838,11 +880,11 @@
       <c r="C23" s="1">
         <v>15</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f>SUM(G16:G22)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f>MIN(C23,G23)</f>
         <v>0</v>
       </c>
@@ -909,43 +951,105 @@
       <c r="C30" s="1">
         <v>5</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <f>SUM(G25:G29)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f>MIN(C30,G30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="8">
+        <v>50</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10">
+        <f>SUM(H4:H30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11">
+        <f>SUM(G35:G37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="3">
-        <v>50</v>
-      </c>
-      <c r="H33">
-        <f>SUM(H4:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f>MIN(C33,H33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="5" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9">
+        <f>Bonus-Malus</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6">
-        <f>1 + TOTAL_POINTS/10</f>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="5">
+        <f>1 + TOTAL/10</f>
         <v>1</v>
       </c>
     </row>

--- a/GradedExercise.xlsx
+++ b/GradedExercise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="2260" windowWidth="30440" windowHeight="24580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -680,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -703,11 +703,11 @@
       </c>
       <c r="G6" s="3">
         <f>SUM(G4:G5)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3">
         <f>MIN(C6,G6)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -740,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -751,7 +751,7 @@
         <v>31</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -773,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -785,11 +785,11 @@
       </c>
       <c r="G14" s="3">
         <f>SUM(G8:G13)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3">
         <f>MIN(C14,G14)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -837,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -848,7 +848,7 @@
         <v>14</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -870,7 +870,7 @@
         <v>16</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -882,11 +882,11 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G16:G22)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H23" s="3">
         <f>MIN(C23,G23)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -941,7 +941,7 @@
         <v>20</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -953,11 +953,11 @@
       </c>
       <c r="G30" s="3">
         <f>SUM(G25:G29)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="3">
         <f>MIN(C30,G30)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -973,7 +973,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="10">
         <f>SUM(H4:H30)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -984,7 +984,7 @@
         <v>32</v>
       </c>
       <c r="G35" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -1020,7 +1020,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="11">
         <f>SUM(G35:G37)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -1035,7 +1035,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9">
         <f>Bonus-Malus</f>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -1050,7 +1050,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5">
         <f>1 + TOTAL/10</f>
-        <v>1</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
